--- a/ServerGrpc/Data/DATA_CONST_STRING.xlsx
+++ b/ServerGrpc/Data/DATA_CONST_STRING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GrpcTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0812CB-7E62-45F6-A00C-54C56C63DAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75311DC-AF8A-45BA-9833-9175653A1456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="2925" windowWidth="25065" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,12 +400,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
     <col min="4" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
